--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>1.975567016052667</v>
+        <v>1.114230499772</v>
       </c>
       <c r="R2">
-        <v>17.780103144474</v>
+        <v>10.028074497948</v>
       </c>
       <c r="S2">
-        <v>0.0001112514884766634</v>
+        <v>0.000100690719077885</v>
       </c>
       <c r="T2">
-        <v>0.0001112514884766634</v>
+        <v>0.000100690719077885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>57.53144917490666</v>
+        <v>54.50825129242666</v>
       </c>
       <c r="R3">
-        <v>517.78304257416</v>
+        <v>490.5742616318399</v>
       </c>
       <c r="S3">
-        <v>0.003239808775364392</v>
+        <v>0.004925798584256648</v>
       </c>
       <c r="T3">
-        <v>0.003239808775364392</v>
+        <v>0.004925798584256649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H4">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>13.68026361284489</v>
+        <v>19.30417676446088</v>
       </c>
       <c r="R4">
-        <v>123.122372515604</v>
+        <v>173.737590880148</v>
       </c>
       <c r="S4">
-        <v>0.0007703862624326977</v>
+        <v>0.001744478759123814</v>
       </c>
       <c r="T4">
-        <v>0.0007703862624326976</v>
+        <v>0.001744478759123814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H5">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.11890783377</v>
+        <v>0.0896613776071111</v>
       </c>
       <c r="R5">
-        <v>1.07017050393</v>
+        <v>0.8069523984639999</v>
       </c>
       <c r="S5">
-        <v>6.696140090899099E-06</v>
+        <v>8.102514324119799E-06</v>
       </c>
       <c r="T5">
-        <v>6.696140090899098E-06</v>
+        <v>8.102514324119801E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.958761</v>
       </c>
       <c r="I6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>0.977012293983</v>
+        <v>0.581602639059</v>
       </c>
       <c r="R6">
-        <v>8.793110645846999</v>
+        <v>5.234423751531001</v>
       </c>
       <c r="S6">
-        <v>5.501917732094316E-05</v>
+        <v>5.255823454521268E-05</v>
       </c>
       <c r="T6">
-        <v>5.501917732094316E-05</v>
+        <v>5.255823454521268E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.958761</v>
       </c>
       <c r="I7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>28.45205081772</v>
@@ -883,10 +883,10 @@
         <v>256.06845735948</v>
       </c>
       <c r="S7">
-        <v>0.00160224025708305</v>
+        <v>0.002571153326589943</v>
       </c>
       <c r="T7">
-        <v>0.00160224025708305</v>
+        <v>0.002571153326589943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.958761</v>
       </c>
       <c r="I8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>6.765544082318001</v>
+        <v>10.076335330409</v>
       </c>
       <c r="R8">
-        <v>60.889896740862</v>
+        <v>90.68701797368098</v>
       </c>
       <c r="S8">
-        <v>0.000380992820489717</v>
+        <v>0.0009105777038919611</v>
       </c>
       <c r="T8">
-        <v>0.0003809928204897169</v>
+        <v>0.0009105777038919611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.958761</v>
       </c>
       <c r="I9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>0.05880560593499999</v>
+        <v>0.046801172512</v>
       </c>
       <c r="R9">
-        <v>0.5292504534149999</v>
+        <v>0.421210552608</v>
       </c>
       <c r="S9">
-        <v>3.311561257037334E-06</v>
+        <v>4.229325722896395E-06</v>
       </c>
       <c r="T9">
-        <v>3.311561257037333E-06</v>
+        <v>4.229325722896396E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H10">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>8.245615033109667</v>
+        <v>0.211025158149</v>
       </c>
       <c r="R10">
-        <v>74.21053529798699</v>
+        <v>1.899226423341</v>
       </c>
       <c r="S10">
-        <v>0.0004643410921447311</v>
+        <v>1.906990961196552E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004643410921447311</v>
+        <v>1.906990961196553E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H11">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>240.1245709907867</v>
+        <v>10.32336877492</v>
       </c>
       <c r="R11">
-        <v>2161.12113891708</v>
+        <v>92.91031897427999</v>
       </c>
       <c r="S11">
-        <v>0.01352230307829409</v>
+        <v>0.0009329016082988042</v>
       </c>
       <c r="T11">
-        <v>0.01352230307829409</v>
+        <v>0.0009329016082988045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H12">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>57.09863871303356</v>
+        <v>3.656036121332333</v>
       </c>
       <c r="R12">
-        <v>513.887748417302</v>
+        <v>32.90432509199099</v>
       </c>
       <c r="S12">
-        <v>0.003215435616812746</v>
+        <v>0.0003303884663963181</v>
       </c>
       <c r="T12">
-        <v>0.003215435616812745</v>
+        <v>0.0003303884663963182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H13">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.4962971206349999</v>
+        <v>0.01698105229866666</v>
       </c>
       <c r="R13">
-        <v>4.466674085714999</v>
+        <v>0.152829470688</v>
       </c>
       <c r="S13">
-        <v>2.794832721374712E-05</v>
+        <v>1.534542778179016E-06</v>
       </c>
       <c r="T13">
-        <v>2.794832721374712E-05</v>
+        <v>1.534542778179017E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H14">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>467.3625473069007</v>
+        <v>162.456454807933</v>
       </c>
       <c r="R14">
-        <v>4206.262925762107</v>
+        <v>1462.108093271397</v>
       </c>
       <c r="S14">
-        <v>0.02631891432872131</v>
+        <v>0.014680855762611</v>
       </c>
       <c r="T14">
-        <v>0.02631891432872131</v>
+        <v>0.01468085576261101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H15">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>13610.29234551923</v>
+        <v>7947.383655858974</v>
       </c>
       <c r="R15">
-        <v>122492.631109673</v>
+        <v>71526.45290273076</v>
       </c>
       <c r="S15">
-        <v>0.7664459214686477</v>
+        <v>0.7181887188153776</v>
       </c>
       <c r="T15">
-        <v>0.7664459214686477</v>
+        <v>0.7181887188153777</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H16">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>3236.35837102812</v>
+        <v>2814.577523036494</v>
       </c>
       <c r="R16">
-        <v>29127.22533925308</v>
+        <v>25331.19770732845</v>
       </c>
       <c r="S16">
-        <v>0.1822513147340326</v>
+        <v>0.2543475831553599</v>
       </c>
       <c r="T16">
-        <v>0.1822513147340326</v>
+        <v>0.25434758315536</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H17">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>28.13018623713</v>
+        <v>13.07276146383289</v>
       </c>
       <c r="R17">
-        <v>253.17167613417</v>
+        <v>117.654853174496</v>
       </c>
       <c r="S17">
-        <v>0.001584114871617716</v>
+        <v>0.001181358572033657</v>
       </c>
       <c r="T17">
-        <v>0.001584114871617716</v>
+        <v>0.001181358572033658</v>
       </c>
     </row>
   </sheetData>
